--- a/WebContent/cmk/상품 데이터.xlsx
+++ b/WebContent/cmk/상품 데이터.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="587">
   <si>
     <t>컴퓨터 부품</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1924,6 +1924,276 @@
   </si>
   <si>
     <t>잘만 N5 OF</t>
+  </si>
+  <si>
+    <t>ASRock 라데온 RX 5700 CHALLENGER D OC D6 8GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASRock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS ROG STRIX 라데온 RX 5700 O8G GAMING D6 8GB</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUS ROG STRIX 라데온 RX 5700 XT O8G GAMING D6 8GB</t>
+  </si>
+  <si>
+    <t>ASUS ROG STRIX 지포스 RTX 2080 Ti O11G GAMING D6 11GB</t>
+  </si>
+  <si>
+    <t>ASUS TURBO 지포스 RTX 2080 Ti D6 11GB</t>
+  </si>
+  <si>
+    <t>EVGA 지포스 RTX 2080 Ti FTW3 ULTRA GAMING D6 11GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIGABYTE AORUS 지포스 RTX 2080 D6 8GB</t>
+  </si>
+  <si>
+    <t>GIGABYTE 라데온 RX 5700 D6 8GB</t>
+  </si>
+  <si>
+    <t>GIGABYTE 라데온 RX 5700 Gaming OC D6 8GB</t>
+  </si>
+  <si>
+    <t>GIGABYTE 지포스 GTX 1660 Ti UDV OC D6 6GB</t>
+  </si>
+  <si>
+    <t>GIGABYTE 지포스 RTX 2060 UDV OC D6 6GB</t>
+  </si>
+  <si>
+    <t>MSI 라데온 RX 5700 XT 게이밍 X D6 8GB 트윈프로져7</t>
+  </si>
+  <si>
+    <t>MSI 라데온 RX 5700 XT 메크 OC D6 8GB</t>
+  </si>
+  <si>
+    <t>MSI 라데온 RX 5700 게이밍 X D6 8GB 트윈프로져7</t>
+  </si>
+  <si>
+    <t>gpu16</t>
+  </si>
+  <si>
+    <t>gpu17</t>
+  </si>
+  <si>
+    <t>gpu18</t>
+  </si>
+  <si>
+    <t>gpu19</t>
+  </si>
+  <si>
+    <t>gpu20</t>
+  </si>
+  <si>
+    <t>gpu21</t>
+  </si>
+  <si>
+    <t>gpu22</t>
+  </si>
+  <si>
+    <t>gpu23</t>
+  </si>
+  <si>
+    <t>gpu24</t>
+  </si>
+  <si>
+    <t>gpu25</t>
+  </si>
+  <si>
+    <t>gpu26</t>
+  </si>
+  <si>
+    <t>gpu27</t>
+  </si>
+  <si>
+    <t>gpu28</t>
+  </si>
+  <si>
+    <t>gpu29</t>
+  </si>
+  <si>
+    <t>gpu30</t>
+  </si>
+  <si>
+    <t>MSI 라데온 RX 5700 메크 OC D6 8GB</t>
+  </si>
+  <si>
+    <t>MSI 지포스 GTX 1660 Ti 벤투스 S D6 6GB</t>
+  </si>
+  <si>
+    <t>MSI 지포스 RTX 2060 벤투스 S OC D6 6GB</t>
+  </si>
+  <si>
+    <t>MSI 지포스 RTX 2080 Ti 게이밍 X 트리오 D6 11GB 트라이프로져</t>
+  </si>
+  <si>
+    <t>MSI 지포스 RTX 2080 Ti 벤투스 GP D6 11GB</t>
+  </si>
+  <si>
+    <t>MSI 지포스 RTX 2080 시호크 X D6 8GB</t>
+  </si>
+  <si>
+    <t>SAPPHIRE 라데온 RX 5700 XT NITRO+ OC D6 8GB Tri-X</t>
+  </si>
+  <si>
+    <t>SAPPHIRE 라데온 RX 5700 XT NITRO+ Special Edition OC D6 8GB Tri-X</t>
+  </si>
+  <si>
+    <t>ZOTAC GAMING 지포스 RTX 2080 AMP EXTREME D6 8GB</t>
+  </si>
+  <si>
+    <t>이엠텍 HV 지포스 RTX 2060 STORM X Dual V2 OC D6 6GB</t>
+  </si>
+  <si>
+    <t>이엠텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이엠텍 XENON 지포스 GTX 1660 Ti STORM X Dual D6 6GB WHITE</t>
+  </si>
+  <si>
+    <t>이엠텍 XENON 지포스 GTX 1660 Ti STORM X Dual OC D6 6GB WHITE</t>
+  </si>
+  <si>
+    <t>이엠텍 지포스 RTX 2060 MIRACLE D6 6GB</t>
+  </si>
+  <si>
+    <t>이엠텍 지포스 RTX 2060 STORM X Dual OC D6 6GB</t>
+  </si>
+  <si>
+    <t>이엠텍 지포스 RTX 2080 Ti BLACK EDITION V2 OC D6 11GB</t>
+  </si>
+  <si>
+    <t>이엠텍 지포스 RTX 2080 Ti D6 11GB BLOWER</t>
+  </si>
+  <si>
+    <t>Seagate 1TB BarraCuda ST1000DM010 (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 2TB BarraCuda ST2000DM008 (SATA3/7200/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 3TB BarraCuda ST3000DM007 (SATA3/5400/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 4TB BarraCuda ST4000DM004 (SATA3/5400/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 4TB IronWolf Pro ST4000NE001 (SATA3/7200/128M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 4TB IronWolf ST4000VN008 (SATA3/5900/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seagate 8TB BarraCuda ST8000DM004 (SATA3/5400/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toshiba 1TB P300 HDWD110 (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdd11</t>
+  </si>
+  <si>
+    <t>hdd12</t>
+  </si>
+  <si>
+    <t>hdd13</t>
+  </si>
+  <si>
+    <t>hdd14</t>
+  </si>
+  <si>
+    <t>hdd15</t>
+  </si>
+  <si>
+    <t>hdd16</t>
+  </si>
+  <si>
+    <t>hdd17</t>
+  </si>
+  <si>
+    <t>hdd18</t>
+  </si>
+  <si>
+    <t>hdd19</t>
+  </si>
+  <si>
+    <t>hdd20</t>
+  </si>
+  <si>
+    <t>hdd21</t>
+  </si>
+  <si>
+    <t>Toshiba 2TB P300 HDWD120 (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toshiba 3TB DT01ACA300 (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toshiba 3TB P300 HDWD130 (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toshiba 4TB N300 HDWQ140 (SATA3/7200/128M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toshiba 4TB X300 HDWE140 (SATA3/7200/128M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toshiba 10TB X300 HDWR11A (SATA3/7200/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Digital 4TB Ultrastar DC HC310 HUS726T4TALA6L4 패키지 (SATA3/7200/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Digital 10TB Ultrastar DC HC330 WUS721010ALE6L4 (SATA3/7200/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Digital 12TB Ultrastar DC HC520 HUH721212ALE600 패키지 (SATA3/7200/256M/2PACK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Digital WD 1TB BLUE WD10EZEX (SATA3/7200/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Digital WD 2TB BLUE WD20EZAZ (SATA3/5400/256M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Digital WD 4TB BLUE WD40EZRZ (SATA3/5400/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Digital WD 4TB Red WD40EFRX (SATA3/5400/64M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2304,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T215"/>
+  <dimension ref="A1:T241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3640,1048 +3910,1853 @@
         <v>384</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>506</v>
+      </c>
+      <c r="C113" t="s">
+        <v>507</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113">
+        <v>430860</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>508</v>
+      </c>
+      <c r="C114" t="s">
+        <v>509</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114">
+        <v>592000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>510</v>
+      </c>
+      <c r="C115" t="s">
+        <v>509</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115">
+        <v>681000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>511</v>
+      </c>
+      <c r="C116" t="s">
+        <v>509</v>
+      </c>
+      <c r="D116" t="s">
+        <v>139</v>
+      </c>
+      <c r="E116">
+        <v>2093000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>512</v>
+      </c>
+      <c r="C117" t="s">
+        <v>509</v>
+      </c>
+      <c r="D117" t="s">
+        <v>139</v>
+      </c>
+      <c r="E117">
+        <v>1817000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>513</v>
+      </c>
+      <c r="C118" t="s">
+        <v>514</v>
+      </c>
+      <c r="D118" t="s">
+        <v>139</v>
+      </c>
+      <c r="E118">
+        <v>2090500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>515</v>
+      </c>
+      <c r="C119" t="s">
+        <v>57</v>
+      </c>
+      <c r="D119" t="s">
+        <v>139</v>
+      </c>
+      <c r="E119">
+        <v>1050280</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>516</v>
+      </c>
+      <c r="C120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120">
+        <v>499440</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>517</v>
+      </c>
+      <c r="C121" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121">
+        <v>516200</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>518</v>
+      </c>
+      <c r="C122" t="s">
+        <v>57</v>
+      </c>
+      <c r="D122" t="s">
+        <v>139</v>
+      </c>
+      <c r="E122">
+        <v>408940</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>519</v>
+      </c>
+      <c r="C123" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" t="s">
+        <v>139</v>
+      </c>
+      <c r="E123">
+        <v>456980</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>520</v>
+      </c>
+      <c r="C124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124">
+        <v>549000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>521</v>
+      </c>
+      <c r="C125" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125">
+        <v>469000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>522</v>
+      </c>
+      <c r="C126" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126">
+        <v>458000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+      <c r="B127" t="s">
+        <v>538</v>
+      </c>
+      <c r="C127" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127">
+        <v>399000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>523</v>
+      </c>
+      <c r="B128" t="s">
+        <v>539</v>
+      </c>
+      <c r="C128" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128">
+        <v>384360</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>524</v>
+      </c>
+      <c r="B129" t="s">
+        <v>540</v>
+      </c>
+      <c r="C129" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" t="s">
+        <v>139</v>
+      </c>
+      <c r="E129">
+        <v>458100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>525</v>
+      </c>
+      <c r="B130" t="s">
+        <v>541</v>
+      </c>
+      <c r="C130" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" t="s">
+        <v>139</v>
+      </c>
+      <c r="E130">
+        <v>1809000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>526</v>
+      </c>
+      <c r="B131" t="s">
+        <v>542</v>
+      </c>
+      <c r="C131" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131">
+        <v>1490000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>527</v>
+      </c>
+      <c r="B132" t="s">
+        <v>543</v>
+      </c>
+      <c r="C132" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>528</v>
+      </c>
+      <c r="B133" t="s">
+        <v>544</v>
+      </c>
+      <c r="C133" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133">
+        <v>616760</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>529</v>
+      </c>
+      <c r="B134" t="s">
+        <v>545</v>
+      </c>
+      <c r="C134" t="s">
+        <v>130</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134">
+        <v>639660</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>530</v>
+      </c>
+      <c r="B135" t="s">
+        <v>546</v>
+      </c>
+      <c r="C135" t="s">
+        <v>133</v>
+      </c>
+      <c r="D135" t="s">
+        <v>139</v>
+      </c>
+      <c r="E135">
+        <v>1106150</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>531</v>
+      </c>
+      <c r="B136" t="s">
+        <v>547</v>
+      </c>
+      <c r="C136" t="s">
+        <v>548</v>
+      </c>
+      <c r="D136" t="s">
+        <v>139</v>
+      </c>
+      <c r="E136">
+        <v>460340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>532</v>
+      </c>
+      <c r="B137" t="s">
+        <v>549</v>
+      </c>
+      <c r="C137" t="s">
+        <v>548</v>
+      </c>
+      <c r="D137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E137">
+        <v>397770</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>533</v>
+      </c>
+      <c r="B138" t="s">
+        <v>550</v>
+      </c>
+      <c r="C138" t="s">
+        <v>548</v>
+      </c>
+      <c r="D138" t="s">
+        <v>139</v>
+      </c>
+      <c r="E138">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>534</v>
+      </c>
+      <c r="B139" t="s">
+        <v>551</v>
+      </c>
+      <c r="C139" t="s">
+        <v>548</v>
+      </c>
+      <c r="D139" t="s">
+        <v>139</v>
+      </c>
+      <c r="E139">
+        <v>456980</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>535</v>
+      </c>
+      <c r="B140" t="s">
+        <v>552</v>
+      </c>
+      <c r="C140" t="s">
+        <v>548</v>
+      </c>
+      <c r="D140" t="s">
+        <v>139</v>
+      </c>
+      <c r="E140">
+        <v>486030</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>536</v>
+      </c>
+      <c r="B141" t="s">
+        <v>553</v>
+      </c>
+      <c r="C141" t="s">
+        <v>548</v>
+      </c>
+      <c r="D141" t="s">
+        <v>139</v>
+      </c>
+      <c r="E141">
+        <v>1620000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>537</v>
+      </c>
+      <c r="B142" t="s">
+        <v>554</v>
+      </c>
+      <c r="C142" t="s">
+        <v>548</v>
+      </c>
+      <c r="D142" t="s">
+        <v>139</v>
+      </c>
+      <c r="E142">
+        <v>1531000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B145" t="s">
         <v>146</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C145" t="s">
         <v>147</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D145" t="s">
         <v>148</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E145" t="s">
         <v>149</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F145" t="s">
         <v>150</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G145" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B146" t="s">
         <v>151</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C146" t="s">
         <v>152</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D146" t="s">
         <v>153</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E146" t="s">
         <v>154</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F146" t="s">
         <v>155</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G146" t="s">
         <v>156</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H146" t="s">
         <v>157</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I146" t="s">
         <v>158</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J146" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B147" t="s">
         <v>53</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C147" t="s">
         <v>160</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D147" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>307</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B150" t="s">
         <v>323</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C150" t="s">
         <v>6</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D150" t="s">
         <v>324</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E150" t="s">
         <v>325</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F150" t="s">
         <v>382</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G150" t="s">
         <v>383</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H150" t="s">
         <v>385</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I150" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" t="s">
-        <v>164</v>
-      </c>
-      <c r="C150" t="s">
-        <v>165</v>
-      </c>
-      <c r="D150" t="s">
-        <v>166</v>
-      </c>
-      <c r="E150" t="s">
-        <v>167</v>
-      </c>
-      <c r="F150" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B151" t="s">
-        <v>169</v>
-      </c>
-      <c r="C151" t="s">
-        <v>170</v>
-      </c>
-      <c r="D151" t="s">
-        <v>171</v>
-      </c>
-      <c r="E151" t="s">
-        <v>172</v>
-      </c>
-      <c r="F151" t="s">
-        <v>173</v>
-      </c>
-      <c r="G151" t="s">
-        <v>174</v>
-      </c>
-      <c r="H151" t="s">
-        <v>175</v>
-      </c>
-      <c r="I151" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B152" t="s">
-        <v>177</v>
-      </c>
-      <c r="C152" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>307</v>
-      </c>
-      <c r="B154" t="s">
-        <v>337</v>
-      </c>
-      <c r="C154" t="s">
-        <v>107</v>
-      </c>
-      <c r="D154" t="s">
-        <v>338</v>
-      </c>
-      <c r="E154" t="s">
-        <v>339</v>
-      </c>
-      <c r="F154" t="s">
-        <v>382</v>
-      </c>
-      <c r="G154" t="s">
-        <v>383</v>
-      </c>
-      <c r="H154" t="s">
-        <v>385</v>
-      </c>
-      <c r="I154" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>349</v>
+      <c r="A164" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>165</v>
+      </c>
+      <c r="D165" t="s">
+        <v>166</v>
+      </c>
+      <c r="E165" t="s">
+        <v>167</v>
+      </c>
+      <c r="F165" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
-        <v>179</v>
+      <c r="A166" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B166" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166" t="s">
+        <v>170</v>
+      </c>
+      <c r="D166" t="s">
+        <v>171</v>
+      </c>
+      <c r="E166" t="s">
+        <v>172</v>
+      </c>
+      <c r="F166" t="s">
+        <v>173</v>
+      </c>
+      <c r="G166" t="s">
+        <v>174</v>
+      </c>
+      <c r="H166" t="s">
+        <v>175</v>
+      </c>
+      <c r="I166" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C167" t="s">
-        <v>181</v>
-      </c>
-      <c r="D167" t="s">
-        <v>182</v>
-      </c>
-      <c r="E167" t="s">
-        <v>183</v>
-      </c>
-      <c r="F167" t="s">
-        <v>184</v>
-      </c>
-      <c r="G167" t="s">
-        <v>185</v>
-      </c>
-      <c r="H167" t="s">
-        <v>186</v>
-      </c>
-      <c r="I167" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B168" t="s">
-        <v>189</v>
-      </c>
-      <c r="C168" t="s">
-        <v>190</v>
-      </c>
-      <c r="D168" t="s">
-        <v>191</v>
-      </c>
-      <c r="E168" t="s">
-        <v>192</v>
-      </c>
-      <c r="F168" t="s">
-        <v>193</v>
-      </c>
-      <c r="G168" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>195</v>
+      <c r="A169" t="s">
+        <v>307</v>
       </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>337</v>
       </c>
       <c r="C169" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="D169" t="s">
-        <v>99</v>
+        <v>338</v>
       </c>
       <c r="E169" t="s">
-        <v>198</v>
+        <v>339</v>
+      </c>
+      <c r="F169" t="s">
+        <v>382</v>
+      </c>
+      <c r="G169" t="s">
+        <v>383</v>
+      </c>
+      <c r="H169" t="s">
+        <v>385</v>
+      </c>
+      <c r="I169" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170" t="s">
+        <v>555</v>
+      </c>
+      <c r="C170" t="s">
+        <v>149</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>7200</v>
+      </c>
+      <c r="F170">
+        <v>61000</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="B171" t="s">
-        <v>295</v>
+        <v>556</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
-      </c>
-      <c r="D171" t="s">
-        <v>354</v>
-      </c>
-      <c r="E171" t="s">
-        <v>355</v>
-      </c>
-      <c r="F171" t="s">
-        <v>382</v>
-      </c>
-      <c r="G171" t="s">
-        <v>383</v>
-      </c>
-      <c r="H171" t="s">
-        <v>385</v>
-      </c>
-      <c r="I171" t="s">
-        <v>384</v>
+        <v>149</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>7200</v>
+      </c>
+      <c r="F171">
+        <v>79440</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B172" t="s">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="C172" t="s">
-        <v>480</v>
-      </c>
-      <c r="D172" t="s">
-        <v>191</v>
+        <v>149</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>3</v>
+        <v>5400</v>
       </c>
       <c r="F172">
-        <v>59000</v>
+        <v>109000</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B173" t="s">
-        <v>481</v>
+        <v>558</v>
       </c>
       <c r="C173" t="s">
-        <v>480</v>
-      </c>
-      <c r="D173" t="s">
-        <v>191</v>
+        <v>149</v>
+      </c>
+      <c r="D173">
+        <v>4</v>
       </c>
       <c r="E173">
-        <v>3</v>
+        <v>5400</v>
       </c>
       <c r="F173">
-        <v>40670</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B174" t="s">
-        <v>482</v>
+        <v>559</v>
       </c>
       <c r="C174" t="s">
-        <v>480</v>
-      </c>
-      <c r="D174" t="s">
-        <v>191</v>
+        <v>149</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
       </c>
       <c r="E174">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="F174">
-        <v>33000</v>
+        <v>259000</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B175" t="s">
-        <v>483</v>
+        <v>560</v>
       </c>
       <c r="C175" t="s">
-        <v>480</v>
-      </c>
-      <c r="D175" t="s">
-        <v>191</v>
+        <v>149</v>
+      </c>
+      <c r="D175">
+        <v>4</v>
       </c>
       <c r="E175">
-        <v>3</v>
+        <v>5900</v>
       </c>
       <c r="F175">
-        <v>43000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176" t="s">
+        <v>561</v>
+      </c>
+      <c r="C176" t="s">
+        <v>149</v>
+      </c>
+      <c r="D176">
+        <v>8</v>
+      </c>
+      <c r="E176">
+        <v>5400</v>
+      </c>
+      <c r="F176">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177" t="s">
+        <v>562</v>
+      </c>
+      <c r="C177" t="s">
+        <v>166</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>7200</v>
+      </c>
+      <c r="F177">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" t="s">
+        <v>574</v>
+      </c>
+      <c r="C178" t="s">
+        <v>166</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>7200</v>
+      </c>
+      <c r="F178">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>349</v>
+      </c>
+      <c r="B179" t="s">
+        <v>575</v>
+      </c>
+      <c r="C179" t="s">
+        <v>166</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+      <c r="E179">
+        <v>7200</v>
+      </c>
+      <c r="F179">
+        <v>103910</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>563</v>
+      </c>
+      <c r="B180" t="s">
+        <v>576</v>
+      </c>
+      <c r="C180" t="s">
+        <v>166</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+      <c r="E180">
+        <v>7200</v>
+      </c>
+      <c r="F180">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>564</v>
+      </c>
+      <c r="B181" t="s">
+        <v>577</v>
+      </c>
+      <c r="C181" t="s">
+        <v>166</v>
+      </c>
+      <c r="D181">
+        <v>4</v>
+      </c>
+      <c r="E181">
+        <v>7200</v>
+      </c>
+      <c r="F181">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>565</v>
+      </c>
+      <c r="B182" t="s">
+        <v>578</v>
+      </c>
+      <c r="C182" t="s">
+        <v>166</v>
+      </c>
+      <c r="D182">
+        <v>4</v>
+      </c>
+      <c r="E182">
+        <v>7200</v>
+      </c>
+      <c r="F182">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>566</v>
+      </c>
+      <c r="B183" t="s">
+        <v>579</v>
+      </c>
+      <c r="C183" t="s">
+        <v>166</v>
+      </c>
+      <c r="D183">
+        <v>10</v>
+      </c>
+      <c r="E183">
+        <v>7200</v>
+      </c>
+      <c r="F183">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>567</v>
+      </c>
+      <c r="B184" t="s">
+        <v>580</v>
+      </c>
+      <c r="C184" t="s">
+        <v>165</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184">
+        <v>7200</v>
+      </c>
+      <c r="F184">
+        <v>189940</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>568</v>
+      </c>
+      <c r="B185" t="s">
+        <v>581</v>
+      </c>
+      <c r="C185" t="s">
+        <v>165</v>
+      </c>
+      <c r="D185">
+        <v>10</v>
+      </c>
+      <c r="E185">
+        <v>7200</v>
+      </c>
+      <c r="F185">
+        <v>465120</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>569</v>
+      </c>
+      <c r="B186" t="s">
+        <v>582</v>
+      </c>
+      <c r="C186" t="s">
+        <v>165</v>
+      </c>
+      <c r="D186">
+        <v>12</v>
+      </c>
+      <c r="E186">
+        <v>7200</v>
+      </c>
+      <c r="F186">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>570</v>
+      </c>
+      <c r="B187" t="s">
+        <v>583</v>
+      </c>
+      <c r="C187" t="s">
+        <v>165</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>7200</v>
+      </c>
+      <c r="F187">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>571</v>
+      </c>
+      <c r="B188" t="s">
+        <v>584</v>
+      </c>
+      <c r="C188" t="s">
+        <v>165</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>5400</v>
+      </c>
+      <c r="F188">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>572</v>
+      </c>
+      <c r="B189" t="s">
+        <v>585</v>
+      </c>
+      <c r="C189" t="s">
+        <v>165</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189">
+        <v>5400</v>
+      </c>
+      <c r="F189">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>573</v>
+      </c>
+      <c r="B190" t="s">
+        <v>586</v>
+      </c>
+      <c r="C190" t="s">
+        <v>165</v>
+      </c>
+      <c r="D190">
+        <v>4</v>
+      </c>
+      <c r="E190">
+        <v>5400</v>
+      </c>
+      <c r="F190">
+        <v>174590</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s">
+        <v>180</v>
+      </c>
+      <c r="C193" t="s">
+        <v>181</v>
+      </c>
+      <c r="D193" t="s">
+        <v>182</v>
+      </c>
+      <c r="E193" t="s">
+        <v>183</v>
+      </c>
+      <c r="F193" t="s">
+        <v>184</v>
+      </c>
+      <c r="G193" t="s">
+        <v>185</v>
+      </c>
+      <c r="H193" t="s">
+        <v>186</v>
+      </c>
+      <c r="I193" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B194" t="s">
+        <v>189</v>
+      </c>
+      <c r="C194" t="s">
+        <v>190</v>
+      </c>
+      <c r="D194" t="s">
+        <v>191</v>
+      </c>
+      <c r="E194" t="s">
+        <v>192</v>
+      </c>
+      <c r="F194" t="s">
+        <v>193</v>
+      </c>
+      <c r="G194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195" t="s">
+        <v>197</v>
+      </c>
+      <c r="D195" t="s">
+        <v>99</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>307</v>
+      </c>
+      <c r="B197" t="s">
+        <v>295</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>354</v>
+      </c>
+      <c r="E197" t="s">
+        <v>355</v>
+      </c>
+      <c r="F197" t="s">
+        <v>382</v>
+      </c>
+      <c r="G197" t="s">
+        <v>383</v>
+      </c>
+      <c r="H197" t="s">
+        <v>385</v>
+      </c>
+      <c r="I197" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>356</v>
+      </c>
+      <c r="B198" t="s">
+        <v>479</v>
+      </c>
+      <c r="C198" t="s">
+        <v>480</v>
+      </c>
+      <c r="D198" t="s">
+        <v>191</v>
+      </c>
+      <c r="E198">
+        <v>3</v>
+      </c>
+      <c r="F198">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>357</v>
+      </c>
+      <c r="B199" t="s">
+        <v>481</v>
+      </c>
+      <c r="C199" t="s">
+        <v>480</v>
+      </c>
+      <c r="D199" t="s">
+        <v>191</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
+      </c>
+      <c r="F199">
+        <v>40670</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>358</v>
+      </c>
+      <c r="B200" t="s">
+        <v>482</v>
+      </c>
+      <c r="C200" t="s">
+        <v>480</v>
+      </c>
+      <c r="D200" t="s">
+        <v>191</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>359</v>
+      </c>
+      <c r="B201" t="s">
+        <v>483</v>
+      </c>
+      <c r="C201" t="s">
+        <v>480</v>
+      </c>
+      <c r="D201" t="s">
+        <v>191</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+      <c r="F201">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>360</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B202" t="s">
         <v>484</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C202" t="s">
         <v>480</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D202" t="s">
         <v>191</v>
       </c>
-      <c r="E176">
+      <c r="E202">
         <v>2</v>
       </c>
-      <c r="F176">
+      <c r="F202">
         <v>92000</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>361</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B203" t="s">
         <v>485</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C203" t="s">
         <v>480</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D203" t="s">
         <v>191</v>
       </c>
-      <c r="E177">
+      <c r="E203">
         <v>7</v>
       </c>
-      <c r="F177">
+      <c r="F203">
         <v>85500</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>362</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B204" t="s">
         <v>486</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C204" t="s">
         <v>487</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D204" t="s">
         <v>191</v>
       </c>
-      <c r="E178">
+      <c r="E204">
         <v>2</v>
       </c>
-      <c r="F178">
+      <c r="F204">
         <v>50500</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>363</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B205" t="s">
         <v>488</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C205" t="s">
         <v>487</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D205" t="s">
         <v>191</v>
       </c>
-      <c r="E179">
+      <c r="E205">
         <v>2</v>
       </c>
-      <c r="F179">
+      <c r="F205">
         <v>32400</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>364</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B206" t="s">
         <v>489</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C206" t="s">
         <v>490</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D206" t="s">
         <v>191</v>
       </c>
-      <c r="E180">
+      <c r="E206">
         <v>4</v>
       </c>
-      <c r="F180">
+      <c r="F206">
         <v>43580</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>365</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B207" t="s">
         <v>491</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C207" t="s">
         <v>490</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D207" t="s">
         <v>191</v>
       </c>
-      <c r="E181">
+      <c r="E207">
         <v>2</v>
       </c>
-      <c r="F181">
+      <c r="F207">
         <v>22350</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>366</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B208" t="s">
         <v>492</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C208" t="s">
         <v>494</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D208" t="s">
         <v>500</v>
       </c>
-      <c r="E182">
+      <c r="E208">
         <v>4</v>
       </c>
-      <c r="F182">
+      <c r="F208">
         <v>81560</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>493</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B209" t="s">
         <v>499</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C209" t="s">
         <v>494</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D209" t="s">
         <v>191</v>
       </c>
-      <c r="E183">
+      <c r="E209">
         <v>4</v>
       </c>
-      <c r="F183">
+      <c r="F209">
         <v>81500</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>495</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B210" t="s">
         <v>501</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C210" t="s">
         <v>180</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D210" t="s">
         <v>191</v>
       </c>
-      <c r="E184">
+      <c r="E210">
         <v>4</v>
       </c>
-      <c r="F184">
+      <c r="F210">
         <v>41340</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>496</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B211" t="s">
         <v>502</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C211" t="s">
         <v>180</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D211" t="s">
         <v>191</v>
       </c>
-      <c r="E185">
+      <c r="E211">
         <v>2</v>
       </c>
-      <c r="F185">
+      <c r="F211">
         <v>44690</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>497</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B212" t="s">
         <v>503</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C212" t="s">
         <v>504</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D212" t="s">
         <v>191</v>
       </c>
-      <c r="E186">
+      <c r="E212">
         <v>4</v>
       </c>
-      <c r="F186">
+      <c r="F212">
         <v>40000</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>498</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B213" t="s">
         <v>505</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C213" t="s">
         <v>504</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D213" t="s">
         <v>191</v>
       </c>
-      <c r="E187">
+      <c r="E213">
         <v>4</v>
       </c>
-      <c r="F187">
+      <c r="F213">
         <v>37320</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B216" t="s">
         <v>200</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C216" t="s">
         <v>187</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D216" t="s">
         <v>201</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E216" t="s">
         <v>202</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F216" t="s">
         <v>203</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G216" t="s">
         <v>204</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H216" t="s">
         <v>205</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I216" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B217" t="s">
         <v>208</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C217" t="s">
         <v>209</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D217" t="s">
         <v>210</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E217" t="s">
         <v>211</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F217" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B218" t="s">
         <v>214</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C218" t="s">
         <v>215</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D218" t="s">
         <v>216</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B219" t="s">
         <v>219</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C219" t="s">
         <v>220</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D219" t="s">
         <v>221</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E219" t="s">
         <v>222</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F219" t="s">
         <v>223</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G219" t="s">
         <v>224</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H219" t="s">
         <v>225</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I219" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>307</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B221" t="s">
         <v>350</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C221" t="s">
         <v>351</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D221" t="s">
         <v>352</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E221" t="s">
         <v>353</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F221" t="s">
         <v>218</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G221" t="s">
         <v>382</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H221" t="s">
         <v>383</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I221" t="s">
         <v>385</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J221" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B235" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B210" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B211" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>307</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B238" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>379</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B239" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>380</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B240" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>381</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B241" t="s">
         <v>231</v>
       </c>
     </row>
